--- a/Datas/RawXlsx/B3.xlsx
+++ b/Datas/RawXlsx/B3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0COCO\本科\大二上学期\英语三\Datas\RawXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BB3D3-74D8-493C-A11A-CD29FB344D30}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDDF5A2-9478-4005-867F-F07DFC365D3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1A" sheetId="1" r:id="rId1"/>
@@ -3160,9 +3160,6 @@
     <t xml:space="preserve">provide for sb. / sth. </t>
   </si>
   <si>
-    <t xml:space="preserve">提供生活所需 </t>
-  </si>
-  <si>
     <t xml:space="preserve">have authority over </t>
   </si>
   <si>
@@ -3563,6 +3560,10 @@
   </si>
   <si>
     <t xml:space="preserve">卡内基音乐厅 </t>
+  </si>
+  <si>
+    <t>提供生活所需，为…做好准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4581,7 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView topLeftCell="A88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4592,622 +4593,622 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -9399,9 +9400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9930,57 +9936,57 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1043</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
